--- a/datas/shared/Gacha.xlsx
+++ b/datas/shared/Gacha.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="21760" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="2900" yWindow="1520" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="24" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -48,54 +48,124 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>movingConstruction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>torch</t>
-  </si>
-  <si>
-    <t>changePlayerName</t>
-  </si>
-  <si>
-    <t>changeCityName</t>
-  </si>
-  <si>
-    <t>retreatTroop</t>
-  </si>
-  <si>
-    <t>moveTheCity</t>
-  </si>
-  <si>
-    <t>dragonExp_1</t>
-  </si>
-  <si>
-    <t>dragonExp_2</t>
-  </si>
-  <si>
-    <t>dragonExp_3</t>
-  </si>
-  <si>
-    <t>dragonHp_1</t>
-  </si>
-  <si>
-    <t>dragonHp_2</t>
-  </si>
-  <si>
-    <t>dragonHp_3</t>
-  </si>
-  <si>
-    <t>heroBlood_1</t>
-  </si>
-  <si>
-    <t>heroBlood_2</t>
-  </si>
-  <si>
-    <t>stamina_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stamina_2</t>
+    <t>items:woodClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:unitHpBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:quarterMaster_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources:gem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -254,6 +324,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,7 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="92">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -362,6 +458,19 @@
     <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -390,6 +499,19 @@
     <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -841,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -870,14 +992,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -885,24 +1007,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -913,24 +1035,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -941,24 +1063,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -969,24 +1091,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -997,27 +1119,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -1025,24 +1147,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -1053,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -1067,27 +1189,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1106,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1135,109 +1257,109 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1247,70 +1369,70 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -1318,41 +1440,41 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Gacha.xlsx
+++ b/datas/shared/Gacha.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="1520" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
+    <workbookView xWindow="4400" yWindow="580" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="24" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -48,123 +48,130 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stoneClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stoneClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:ironClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:ironClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:foodClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:foodClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:vipActive_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:warSpeedupClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:woodClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stoneClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:ironClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:foodClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:coinClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:warSpeedupClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:dragonChest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:chest_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stamina_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:unitHpBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:quarterMaster_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources:gem</t>
+    <t>gemClass_2</t>
+  </si>
+  <si>
+    <t>gemClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipActive_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinClass_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>warSpeedupClass_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonChest_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonChest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonChest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitHpBonus_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarterMaster_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +971,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -993,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1007,10 +1014,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1021,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1035,7 +1042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1049,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1063,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1077,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1091,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1105,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1119,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1133,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1147,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1161,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1175,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1189,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1203,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1229,7 +1236,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1257,11 +1264,11 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1272,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1286,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1300,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1314,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1328,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1342,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1356,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1370,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1384,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1398,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1412,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1426,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1440,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1454,7 +1461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1468,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>

--- a/datas/shared/Gacha.xlsx
+++ b/datas/shared/Gacha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="580" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
+    <workbookView xWindow="420" yWindow="640" windowWidth="30520" windowHeight="14480" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="24" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -51,128 +51,94 @@
     <t>gemClass_2</t>
   </si>
   <si>
+    <t>woodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_4</t>
+  </si>
+  <si>
+    <t>stoneClass_3</t>
+  </si>
+  <si>
+    <t>stoneClass_4</t>
+  </si>
+  <si>
+    <t>ironClass_3</t>
+  </si>
+  <si>
+    <t>ironClass_4</t>
+  </si>
+  <si>
+    <t>foodClass_3</t>
+  </si>
+  <si>
+    <t>foodClass_4</t>
+  </si>
+  <si>
+    <t>coinClass_3</t>
+  </si>
+  <si>
+    <t>casinoTokenClass_1</t>
+  </si>
+  <si>
+    <t>speedup_3</t>
+  </si>
+  <si>
+    <t>speedup_4</t>
+  </si>
+  <si>
+    <t>vipActive_3</t>
+  </si>
+  <si>
+    <t>warSpeedupClass_1</t>
+  </si>
+  <si>
     <t>gemClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gemClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodClass_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>casinoTokenClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipActive_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>warSpeedupClass_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinClass_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>warSpeedupClass_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonChest_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipPoint_3</t>
   </si>
   <si>
     <t>dragonChest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>dragonChest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>chest_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_6</t>
+  </si>
+  <si>
+    <t>stoneClass_6</t>
+  </si>
+  <si>
+    <t>ironClass_6</t>
+  </si>
+  <si>
+    <t>foodClass_6</t>
   </si>
   <si>
     <t>chest_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>chest_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup_7</t>
   </si>
   <si>
     <t>stamina_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>unitHpBonus_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>quarterMaster_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSpeedBonus_2</t>
+  </si>
+  <si>
+    <t>coinBonus_2</t>
   </si>
 </sst>
 </file>
@@ -316,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -331,6 +297,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,7 +399,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="96">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -478,6 +448,8 @@
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -519,6 +491,8 @@
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -970,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1000,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -1028,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1042,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1056,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -1070,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1084,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -1098,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1112,10 +1086,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -1126,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1140,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -1154,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1168,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -1182,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1196,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1210,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1235,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1265,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1278,50 +1252,50 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1334,64 +1308,64 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1404,28 +1378,28 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -1433,41 +1407,41 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1475,13 +1449,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Gacha.xlsx
+++ b/datas/shared/Gacha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="640" windowWidth="30520" windowHeight="14480" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="2460" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="24" r:id="rId1"/>
@@ -282,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -297,6 +297,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,7 +409,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="106">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -450,6 +460,11 @@
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -493,6 +508,11 @@
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -944,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -980,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -994,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -1008,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -1022,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -1036,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -1050,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1064,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1078,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -1092,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -1106,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -1120,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -1134,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -1148,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -1162,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -1176,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1190,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1209,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1245,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -1259,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -1273,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -1287,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -1301,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -1315,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1329,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1343,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -1357,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -1371,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -1385,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -1399,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -1413,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -1427,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -1441,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1455,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Gacha.xlsx
+++ b/datas/shared/Gacha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="2460" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
+    <workbookView xWindow="1660" yWindow="5040" windowWidth="30520" windowHeight="14480" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="24" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>vipActive_3</t>
   </si>
   <si>
-    <t>warSpeedupClass_1</t>
-  </si>
-  <si>
     <t>gemClass_3</t>
   </si>
   <si>
@@ -138,7 +135,10 @@
     <t>marchSpeedBonus_2</t>
   </si>
   <si>
-    <t>coinBonus_2</t>
+    <t>vipPoint_4</t>
+  </si>
+  <si>
+    <t>sweepScroll</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -297,6 +297,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -409,7 +417,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="114">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -465,6 +473,10 @@
     <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -513,6 +525,10 @@
     <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -965,7 +981,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1000,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -1008,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -1028,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -1056,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -1084,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1112,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -1154,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -1168,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -1182,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -1196,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1204,13 +1220,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1258,36 +1274,36 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1300,92 +1316,92 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1398,8 +1414,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1413,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1426,8 +1442,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1440,8 +1456,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1455,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1472,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>50</v>
